--- a/biology/Microbiologie/Giulio_Rèpaci/Giulio_Rèpaci.xlsx
+++ b/biology/Microbiologie/Giulio_Rèpaci/Giulio_Rèpaci.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Giulio_R%C3%A8paci</t>
+          <t>Giulio_Rèpaci</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Giulio Rèpaci est un microbiologiste italien né vers l’an 1880 à Palmi, en Calabre. Son nom est associé à Eubacterium moniliforme (Repaci 1910)[1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Giulio Rèpaci est un microbiologiste italien né vers l’an 1880 à Palmi, en Calabre. Son nom est associé à Eubacterium moniliforme (Repaci 1910)
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Giulio_R%C3%A8paci</t>
+          <t>Giulio_Rèpaci</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il entre à l'Institut Pasteur où il suit le cours de microbiologie professé entre autres par Émile Roux, de novembre 1907 à mars 1908[2].
-Il découvre ensuite Bacillus moniliformis (Repaci 1910 E. moniliforme)[1]. Il a publié de nombreuses publications, dont une avec le docteur Adrien Veilon.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il entre à l'Institut Pasteur où il suit le cours de microbiologie professé entre autres par Émile Roux, de novembre 1907 à mars 1908.
+Il découvre ensuite Bacillus moniliformis (Repaci 1910 E. moniliforme). Il a publié de nombreuses publications, dont une avec le docteur Adrien Veilon.
 Son frère cadet, Leonida Rèpaci, était écrivain.
 </t>
         </is>
